--- a/data/trans_bre/P16-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,28; 36,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,46; 31,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,26; 31,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 24,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,48; 112,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 70,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,39; 74,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 51,3</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 20,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,8; 21,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 22,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 14,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,3; 55,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 44,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,85; 48,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,46; 28,71</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,45; 22,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,35; 24,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,83; 21,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,86; 25,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,02; 57,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,82; 52,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,7; 45,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,6; 64,98</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,49; 23,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,7; 25,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,55; 19,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 23,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,14; 66,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,48; 56,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,34; 45,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,77; 48,0</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,3; 22,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,07; 25,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,73; 16,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 15,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,73; 59,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,21; 51,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,91; 33,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,73; 28,63</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 20,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 22,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 17,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,54; 17,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,26; 52,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,54; 44,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,46; 35,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,67; 34,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,34</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,13</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 36,4</t>
+          <t>11,31; 21,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 31,12</t>
+          <t>11,13; 21,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 31,75</t>
+          <t>11,93; 22,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 24,08</t>
+          <t>3,83; 14,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,48; 112,98</t>
+          <t>26,05; 57,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 70,72</t>
+          <t>19,99; 43,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 74,1</t>
+          <t>22,51; 48,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 51,3</t>
+          <t>6,5; 28,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>25,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>69,17%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 20,75</t>
+          <t>13,45; 22,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 21,7</t>
+          <t>16,35; 24,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 22,59</t>
+          <t>11,83; 21,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 14,39</t>
+          <t>14,5; 44,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 55,65</t>
+          <t>31,02; 57,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 44,33</t>
+          <t>31,82; 52,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 48,27</t>
+          <t>22,7; 45,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 28,71</t>
+          <t>30,33; 226,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,4</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>24,16%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,45; 22,31</t>
+          <t>13,49; 23,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 24,8</t>
+          <t>14,7; 25,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,01</t>
+          <t>9,55; 19,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 25,24</t>
+          <t>1,69; 30,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,02; 57,55</t>
+          <t>32,14; 66,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,82; 52,52</t>
+          <t>29,48; 56,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,7; 45,14</t>
+          <t>19,34; 45,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,6; 64,98</t>
+          <t>3,31; 61,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>18,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,16</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,99</t>
+          <t>14,3; 22,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 25,18</t>
+          <t>16,07; 25,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 19,72</t>
+          <t>7,73; 16,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 23,88</t>
+          <t>6,98; 19,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 66,43</t>
+          <t>32,73; 59,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 56,1</t>
+          <t>30,21; 51,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 45,63</t>
+          <t>13,91; 33,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 48,0</t>
+          <t>11,71; 35,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,63</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,69</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,3; 22,91</t>
+          <t>15,47; 20,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,14</t>
+          <t>17,44; 22,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 16,84</t>
+          <t>12,6; 17,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 15,19</t>
+          <t>11,06; 29,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,73; 59,86</t>
+          <t>37,26; 52,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,21; 51,93</t>
+          <t>33,54; 44,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,91; 33,14</t>
+          <t>24,46; 35,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 28,63</t>
+          <t>20,85; 77,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,04</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>19,81</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,51</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>44,5%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>39,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>30,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,47; 20,37</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,44; 22,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>12,6; 17,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,54; 17,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>37,26; 52,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>33,54; 44,84</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>24,46; 35,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 34,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 21,74</t>
+          <t>10,92; 21,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 21,55</t>
+          <t>11,23; 21,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 22,77</t>
+          <t>11,96; 22,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,72</t>
+          <t>3,48; 14,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,05; 57,36</t>
+          <t>24,6; 55,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,99; 43,77</t>
+          <t>20,44; 44,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 48,05</t>
+          <t>22,35; 48,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 28,39</t>
+          <t>6,04; 27,46</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 22,31</t>
+          <t>13,18; 22,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 24,8</t>
+          <t>16,62; 25,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,01</t>
+          <t>11,83; 20,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 44,74</t>
+          <t>14,69; 43,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 57,55</t>
+          <t>29,99; 57,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,82; 52,52</t>
+          <t>31,72; 52,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,7; 45,14</t>
+          <t>22,62; 44,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 226,92</t>
+          <t>30,27; 207,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,99</t>
+          <t>13,38; 24,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 25,18</t>
+          <t>14,48; 25,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 19,72</t>
+          <t>9,36; 19,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 30,64</t>
+          <t>1,69; 29,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,14; 66,43</t>
+          <t>32,09; 69,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,48; 56,1</t>
+          <t>28,92; 56,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 45,63</t>
+          <t>19,14; 44,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 61,02</t>
+          <t>2,71; 56,97</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 22,91</t>
+          <t>14,29; 22,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,14</t>
+          <t>16,47; 25,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 16,84</t>
+          <t>8,02; 16,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 19,24</t>
+          <t>7,03; 19,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,73; 59,86</t>
+          <t>33,29; 59,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,21; 51,93</t>
+          <t>30,47; 51,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 33,14</t>
+          <t>14,48; 33,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 35,35</t>
+          <t>11,5; 34,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,37</t>
+          <t>15,7; 20,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,04</t>
+          <t>17,61; 22,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,39</t>
+          <t>12,69; 17,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 29,85</t>
+          <t>11,2; 29,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,26; 52,15</t>
+          <t>37,43; 52,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,54; 44,84</t>
+          <t>33,9; 45,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 35,6</t>
+          <t>24,97; 36,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,85; 77,44</t>
+          <t>21,34; 75,12</t>
         </is>
       </c>
     </row>
